--- a/skrum_docs/04_SpecificDesign/03_Account_追加ユーザ登録画面仕様書_20170712.xlsx
+++ b/skrum_docs/04_SpecificDesign/03_Account_追加ユーザ登録画面仕様書_20170712.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/OneDrive/Skrum/06_プロダクト開発/プロダクト資料/03_詳細設計/画面仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/Dev/skrum/skrum_docs/04_SpecificDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="追加ユーザ登録" sheetId="1" r:id="rId1"/>
@@ -481,14 +481,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -497,7 +497,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6451600" y="12852400"/>
+          <a:off x="6451600" y="12319000"/>
           <a:ext cx="1333500" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -548,14 +548,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -564,7 +564,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7912100" y="12890500"/>
+          <a:off x="7912100" y="12357100"/>
           <a:ext cx="2260600" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -946,7 +946,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="subsheet!$A$2:$F$5" spid="_x0000_s1038"/>
+                  <a14:cameraTool cellRange="subsheet!$A$2:$F$5" spid="_x0000_s1040"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1303,6 +1303,132 @@
             <a:t> go to top page just after you submit password.</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6464300" y="12954000"/>
+          <a:ext cx="1333500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="12992100"/>
+          <a:ext cx="2260600" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
